--- a/RawData/DIC-potato.xlsx
+++ b/RawData/DIC-potato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini/Documents/GitHub/ExperimentalStatistics/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F35553-5771-3947-8211-E347010DDAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5722F717-E434-5A4E-A139-326414E3A956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{5198AFDC-363E-E547-9C36-87402FEFB098}"/>
+    <workbookView xWindow="11880" yWindow="2400" windowWidth="27840" windowHeight="16740" xr2:uid="{108A3F78-6C42-484E-8170-868771827AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="DIC-potato" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,19 @@
     <t>Asterix</t>
   </si>
   <si>
-    <t>Familia01</t>
+    <t>St57</t>
   </si>
   <si>
-    <t>Familia02</t>
+    <t>St91</t>
   </si>
   <si>
-    <t>Familia03</t>
+    <t>St346</t>
   </si>
   <si>
-    <t>Familia04</t>
+    <t>St467</t>
   </si>
   <si>
-    <t>Familia05</t>
+    <t>St614</t>
   </si>
 </sst>
 </file>
@@ -906,11 +906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB09FC0D-5E71-AE4D-8342-EE553B2E287A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B13FA4-50F8-9045-A679-9E82C9F3B801}">
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
